--- a/result.xlsx
+++ b/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Percentagechange</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Ticker</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>-0.08%</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>VIX</t>
   </si>
   <si>
-    <t>http://data.cnbc.com/quotes/.VIX</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -59,54 +53,36 @@
     <t>10 Year US/T</t>
   </si>
   <si>
-    <t>http://data.cnbc.com/quotes/US10Y</t>
-  </si>
-  <si>
-    <t>+0.18%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20 </t>
-  </si>
-  <si>
-    <t>1,212.00</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNCH </t>
+  </si>
+  <si>
+    <t>1,211.20</t>
   </si>
   <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>http://data.cnbc.com/quotes/%40GC.1</t>
-  </si>
-  <si>
-    <t>-0.44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 </t>
-  </si>
-  <si>
-    <t>47.90</t>
+    <t>48.03</t>
   </si>
   <si>
     <t>Oil</t>
   </si>
   <si>
-    <t>http://data.cnbc.com/quotes/%40CL.1</t>
-  </si>
-  <si>
-    <t>-0.02%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0002 </t>
-  </si>
-  <si>
-    <t>1.0622</t>
+    <t>+0.07%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0007 </t>
+  </si>
+  <si>
+    <t>1.0631</t>
   </si>
   <si>
     <t>EUR/USD</t>
   </si>
   <si>
-    <t>http://data.cnbc.com/quotes/EUR%3D</t>
-  </si>
-  <si>
     <t>-0.06%</t>
   </si>
   <si>
@@ -119,9 +95,6 @@
     <t>USD/CNY</t>
   </si>
   <si>
-    <t>http://data.cnbc.com/quotes/CNY=</t>
-  </si>
-  <si>
     <t>+0.33%</t>
   </si>
   <si>
@@ -134,9 +107,6 @@
     <t>NASDAQ</t>
   </si>
   <si>
-    <t>http://data.cnbc.com/quotes/.IXIC</t>
-  </si>
-  <si>
     <t>+1.43%</t>
   </si>
   <si>
@@ -149,9 +119,6 @@
     <t>HANG SENG</t>
   </si>
   <si>
-    <t>http://money.cnn.com/data/world_markets/hang_seng/</t>
-  </si>
-  <si>
     <t>+0.22%</t>
   </si>
   <si>
@@ -162,9 +129,6 @@
   </si>
   <si>
     <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>http://data.cnbc.com/quotes/.SPX</t>
   </si>
 </sst>
 </file>
@@ -496,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +468,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,161 +481,131 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
